--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4798</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shaheen Shah Afridi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1094,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/06/2019</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1288,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,7 +1391,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>29/06/2019</t>
@@ -1344,7 +1398,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1488,7 +1542,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -1496,7 +1549,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4434</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1745,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>07/04/2021</t>
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1908,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1896,7 +1948,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>31/03/2022</t>
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1944,7 +1995,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>02/04/2022</t>
@@ -1952,7 +2002,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1992,7 +2042,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -2000,7 +2049,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2052,7 +2101,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2091,7 +2140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2162,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2150,7 +2199,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2187,7 +2236,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2224,7 +2273,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2261,7 +2310,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2298,7 +2347,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2335,7 +2384,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2372,7 +2421,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2409,7 +2458,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2446,7 +2495,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2483,7 +2532,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2520,7 +2569,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2557,7 +2606,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2594,7 +2643,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2631,7 +2680,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2668,7 +2717,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2705,7 +2754,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2742,7 +2791,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2779,7 +2828,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2816,7 +2865,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2853,7 +2902,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2890,7 +2939,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4434</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2927,7 +2976,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2964,7 +3013,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3001,7 +3050,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3038,7 +3087,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3075,7 +3124,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3112,7 +3161,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3149,7 +3198,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3186,7 +3235,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3223,7 +3272,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3260,7 +3309,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3288,6 +3337,475 @@
           <t>1/17</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6.40%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.51%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.23%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3395,15 +3396,412 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6.40%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.72%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.51%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.23%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3411,27 +3809,14 @@
           <t>4300</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>10</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.40%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3441,15 +3826,14 @@
           <t>4319</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3459,13 +3843,14 @@
           <t>4334</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3475,25 +3860,8 @@
           <t>4337</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3501,13 +3869,14 @@
           <t>4340</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3517,13 +3886,14 @@
           <t>4349</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -3533,29 +3903,8 @@
           <t>4432</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.72%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3563,25 +3912,8 @@
           <t>4433</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3589,29 +3921,12 @@
           <t>4434</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.54%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3619,15 +3934,14 @@
           <t>4458</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3637,27 +3951,14 @@
           <t>4459</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.51%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3667,27 +3968,14 @@
           <t>4460</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.23%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3697,23 +3985,14 @@
           <t>4472</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3723,13 +4002,14 @@
           <t>4473</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3739,17 +4019,12 @@
           <t>4476</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3759,13 +4034,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3773,13 +4041,14 @@
           <t>4567</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3791,9 +4060,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3803,9 +4069,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3396,6 +3395,10 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3441,6 +3444,9 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3453,6 +3459,10 @@
           <t>4334</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3478,6 +3488,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3490,6 +3501,10 @@
           <t>4340</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3502,6 +3517,10 @@
           <t>4349</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3557,6 +3576,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3602,6 +3622,9 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3687,6 +3710,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3699,6 +3723,10 @@
           <t>4473</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3714,6 +3742,9 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3726,6 +3757,10 @@
           <t>4565</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3738,6 +3773,10 @@
           <t>4567</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3750,6 +3789,11 @@
           <t>4586</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3757,318 +3801,11 @@
           <t>4590</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4434</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4798.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -901,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -948,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -1047,6 +1052,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -1094,6 +1100,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/06/2019</t>
@@ -1344,6 +1352,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -1391,6 +1400,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>29/06/2019</t>
@@ -1542,6 +1552,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -1745,6 +1756,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>07/04/2021</t>
@@ -1948,6 +1960,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>31/03/2022</t>
@@ -1995,6 +2008,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>02/04/2022</t>
@@ -2042,6 +2056,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -3341,473 +3356,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.40%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.72%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4434</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.54%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.51%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.23%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>